--- a/stepped.xlsx
+++ b/stepped.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84D64B2F-D269-436D-A987-FC548BB11E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meteo" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <sheet name="Corr" sheetId="6" r:id="rId4"/>
     <sheet name="Exp_Data" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Auteur</author>
   </authors>
   <commentList>
-    <comment ref="Q3" authorId="0" shapeId="0">
+    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,8 +57,21 @@
 </comments>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Ambient Temperature" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\belmehdi\Documents\Zet\2025\data pour validation\Ambient Temperature.csv" decimal="," thousands=" " space="1" semicolon="1" consecutive="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="185">
   <si>
     <t>t</t>
   </si>
@@ -374,9 +388,6 @@
     <t>Acrylic</t>
   </si>
   <si>
-    <t>Graphite</t>
-  </si>
-  <si>
     <t>Stainless Steel</t>
   </si>
   <si>
@@ -452,9 +463,6 @@
     <t>Lifetime</t>
   </si>
   <si>
-    <t>Polyurethane foam</t>
-  </si>
-  <si>
     <t>Configurations</t>
   </si>
   <si>
@@ -561,17 +569,112 @@
   </si>
   <si>
     <t>Zheng Hongfei et al</t>
+  </si>
+  <si>
+    <t>2*</t>
+  </si>
+  <si>
+    <t>3*</t>
+  </si>
+  <si>
+    <t>3**</t>
+  </si>
+  <si>
+    <t>5*</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>30°</t>
+  </si>
+  <si>
+    <t>Galvanized steel</t>
+  </si>
+  <si>
+    <t>Price(USD/kg)</t>
+  </si>
+  <si>
+    <t>Polyestyrene</t>
+  </si>
+  <si>
+    <r>
+      <t>Valeur (m/m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/°)</t>
+    </r>
+  </si>
+  <si>
+    <t>1*</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Isolant 1</t>
+  </si>
+  <si>
+    <r>
+      <t>0.095 m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Isolant 2</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>31°06'42.0"N 30°56'45.0"E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,6 +753,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -701,7 +849,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -783,26 +931,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -823,39 +1003,58 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -865,7 +1064,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,12 +1094,18 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>87312</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>79229</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>157339</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -916,6 +1120,49 @@
         <a:xfrm>
           <a:off x="6103938" y="1119187"/>
           <a:ext cx="3802062" cy="2992292"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>135684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>509815</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>62304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="5783"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6299460" y="4606602"/>
+          <a:ext cx="5569079" cy="3192335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -944,7 +1191,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1232,295 +1485,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" zoomScale="97" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L12" sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="2.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="B2" s="5">
+        <v>32.9</v>
+      </c>
+      <c r="C2" s="57">
+        <v>472.1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.101325</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B3" s="5">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C3" s="57">
+        <v>697.9</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="H3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B4" s="5">
+        <v>34.4</v>
+      </c>
+      <c r="C4" s="57">
+        <v>777.5</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="H4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>36.5</v>
+      </c>
+      <c r="C5" s="57">
+        <v>903.7</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="H5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B6" s="5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="C6" s="57">
+        <v>926.9</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="H6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B7" s="5">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="C7" s="57">
+        <v>804.1</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="H7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B2" s="6">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4">
-        <v>150</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.101325</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="K7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="B8" s="5">
+        <v>40.1</v>
+      </c>
+      <c r="C8" s="57">
+        <v>624.79999999999995</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>11</v>
       </c>
-      <c r="F2" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="F8" s="3"/>
+      <c r="H8" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I8" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="B3" s="6">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4">
-        <v>290</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4">
+      <c r="J8" s="60" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B9" s="5">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C9" s="57">
+        <v>422.4</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="H9" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B10" s="5">
+        <v>36.5</v>
+      </c>
+      <c r="C10" s="57">
+        <v>273</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
         <v>9</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="H3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B4" s="6">
-        <v>24.6</v>
-      </c>
-      <c r="C4" s="4">
-        <v>500</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="H4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="B5" s="6">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4">
-        <v>720</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="B11" s="5">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="C11" s="57">
+        <v>153.5</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
         <v>11</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="H5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4">
-        <v>860</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B12" s="5">
+        <v>32.4</v>
+      </c>
+      <c r="C12" s="57">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
         <v>11</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="H6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B7" s="6">
-        <v>27.1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>950</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="H7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="B8" s="6">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4">
-        <v>980</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <v>0.625</v>
-      </c>
-      <c r="B9" s="6">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4">
-        <v>900</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
-        <v>20</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="B10" s="6">
-        <v>26.7</v>
-      </c>
-      <c r="C10" s="4">
-        <v>750</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
-        <v>20</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="B11" s="6">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4">
-        <v>450</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
-        <v>19</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="B12" s="6">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4">
-        <v>200</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1529,30 +1800,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView showGridLines="0" topLeftCell="B8" zoomScale="113" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" style="13"/>
-    <col min="3" max="3" width="42.1796875" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" customWidth="1"/>
-    <col min="5" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
-    <col min="8" max="8" width="3.36328125" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.54296875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="6"/>
+    <col min="3" max="3" width="42.21875" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" customWidth="1"/>
+    <col min="5" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1562,29 +1833,33 @@
         <v>8</v>
       </c>
       <c r="E1" s="3"/>
-      <c r="G1" s="48" t="s">
-        <v>132</v>
+      <c r="G1" s="43" t="s">
+        <v>130</v>
       </c>
       <c r="H1">
         <v>1</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="44" t="s">
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" s="49" t="s">
-        <v>119</v>
+        <v>131</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>118</v>
       </c>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="11">
+      <c r="O1" s="58"/>
+      <c r="P1" s="59" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
         <v>0</v>
       </c>
-      <c r="B2" s="11">
-        <v>0.19500000000000001</v>
+      <c r="B2" s="7">
+        <v>0.05</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -1598,25 +1873,31 @@
       <c r="H2">
         <v>2</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" s="49" t="s">
-        <v>135</v>
+      <c r="J2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>133</v>
       </c>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
+      <c r="O2" s="54">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="P2" s="55">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1626,18 +1907,24 @@
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K3" s="49" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
+        <v>134</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="O3" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="P3" s="55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
-        <v>0.01</v>
+      <c r="B4" s="7">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
@@ -1648,18 +1935,24 @@
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
+      <c r="J4" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="54">
+        <v>2</v>
+      </c>
+      <c r="P4" s="55">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>0.04</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1671,13 +1964,19 @@
       <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
+      <c r="O5" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="P5" s="55">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
-        <v>0.02</v>
+      <c r="B6" s="7">
+        <v>0.03</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -1688,13 +1987,19 @@
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
+      <c r="O6" s="54">
+        <v>3</v>
+      </c>
+      <c r="P6" s="55">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="11">
-        <v>0.5</v>
+      <c r="B7" s="7">
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>22</v>
@@ -1707,16 +2012,22 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
+      <c r="O7" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="P7" s="55">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="47">
-        <v>10</v>
+      <c r="B8" s="42">
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>24</v>
@@ -1724,16 +2035,22 @@
       <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
+      <c r="O8" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="P8" s="55">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="11">
-        <v>0.06</v>
+      <c r="B9" s="7">
+        <v>0.1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
@@ -1741,16 +2058,22 @@
       <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
+      <c r="O9" s="54">
+        <v>4</v>
+      </c>
+      <c r="P9" s="55">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <v>0.1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>11</v>
@@ -1758,13 +2081,19 @@
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
+      <c r="O10" s="54">
+        <v>5</v>
+      </c>
+      <c r="P10" s="55">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="11">
-        <v>0.02</v>
+      <c r="B11" s="7">
+        <v>0.05</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>28</v>
@@ -1775,13 +2104,19 @@
       <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
+      <c r="O11" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="P11" s="55">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="11">
-        <v>0.05</v>
+      <c r="B12" s="7">
+        <v>0</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>30</v>
@@ -1792,13 +2127,19 @@
       <c r="E12" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
+      <c r="O12" s="54">
+        <v>6</v>
+      </c>
+      <c r="P12" s="55">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="11">
-        <v>0.05</v>
+      <c r="B13" s="7">
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>32</v>
@@ -1809,12 +2150,18 @@
       <c r="E13" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
+      <c r="O13" s="54">
+        <v>7</v>
+      </c>
+      <c r="P13" s="55">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="7">
         <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1826,12 +2173,18 @@
       <c r="E14" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
+      <c r="O14" s="54">
+        <v>8</v>
+      </c>
+      <c r="P14" s="55">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="7">
         <v>90</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1843,12 +2196,18 @@
       <c r="E15" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
+      <c r="O15" s="54">
+        <v>9</v>
+      </c>
+      <c r="P15" s="55">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1860,30 +2219,42 @@
       <c r="E16" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="11">
+      <c r="O16" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="P16" s="55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="B17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
+      <c r="E17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="O17" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="P17" s="55">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="11">
-        <v>0.02</v>
+      <c r="B18" s="7">
+        <v>0.1</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>43</v>
@@ -1894,12 +2265,18 @@
       <c r="E18" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="11">
+      <c r="O18" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="P18" s="55" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="7">
         <v>0.25</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1912,11 +2289,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="11">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="7">
         <v>0.01</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1929,12 +2306,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="11">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="11">
-        <v>0.4</v>
+      <c r="B21" s="7">
+        <v>0.5</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>41</v>
@@ -1946,15 +2323,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="11">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="11">
-        <v>0.01</v>
+      <c r="B22" s="7">
+        <v>0.02</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
@@ -1963,12 +2340,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="11">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="11">
-        <v>12</v>
+      <c r="B23" s="7">
+        <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>50</v>
@@ -1982,10 +2359,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$I$1:$I$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$K:$K</formula1>
     </dataValidation>
   </dataValidations>
@@ -1996,744 +2373,740 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView showGridLines="0" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.54296875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="30" t="s">
+      <c r="J1" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" s="28" t="s">
+      <c r="L1" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>110</v>
+      <c r="O1" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="P1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="14">
         <v>35</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="15">
         <f t="shared" ref="F2:F8" si="0">IF($G$1=$P$3,P4,IF($G$1=$Q$3,Q4))</f>
         <v>0.85</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="22">
-        <f t="shared" ref="I2:I9" si="1">IF($J$1=$P$14,P15,IF($J$1=$Q$14,Q15,IF($J$1=$R$14,R15)))</f>
-        <v>0.02</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="29" t="s">
+      <c r="I2" s="17">
+        <f>IF($J$1=$P$14,P15,IF($J$1=$Q$14,Q15,IF($J$1=$R$14,R15)))</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="29">
+      <c r="L2" s="24">
         <f>IF($M$1=$P$25,P26,IF($M$1=$Q$25,Q26))</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="34" t="s">
+      <c r="O2" s="13"/>
+      <c r="P2" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="Q2" s="35"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="Q2" s="30"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="14">
         <v>0.95</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="15">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="22" t="s">
+      <c r="G3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="22">
-        <f t="shared" si="1"/>
-        <v>0.85</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="K3" s="23" t="s">
+      <c r="I3" s="17">
+        <f>IF($J$1=$P$14,P16,IF($J$1=$Q$14,Q16,IF($J$1=$R$14,R16)))</f>
+        <v>0.9</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="18">
         <f>R26</f>
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="P3" s="32" t="s">
+      <c r="O3" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="27" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="14">
         <v>0.05</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="15">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="22">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="J4" s="16" t="s">
+      <c r="I4" s="17">
+        <f t="shared" ref="I4:I9" si="1">IF($J$1=$P$14,P17,IF($J$1=$Q$14,Q17,IF($J$1=$R$14,R17)))</f>
+        <v>50</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="18">
         <f>IF($M$1=$P$25,P27,IF($M$1=$Q$25,Q27))</f>
         <v>400</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="P4" s="15">
+      <c r="O4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="P4" s="10">
         <v>0.85</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="10">
         <v>0.86</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="14">
         <v>0.9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="15">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="17">
         <f t="shared" si="1"/>
-        <v>2700</v>
-      </c>
-      <c r="J5" s="16" t="s">
+        <v>7100</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="18">
         <f>R27</f>
         <v>930</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="O5" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="P5" s="15">
+      <c r="O5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P5" s="10">
         <v>0.3</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="10">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="14">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="15">
         <f t="shared" si="0"/>
         <v>2530</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="17">
         <f t="shared" si="1"/>
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="J6" s="16" t="s">
+        <v>0.46</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="18">
         <f>IF($M$1=$P$25,P28,IF($M$1=$Q$25,Q28))</f>
         <v>14</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="O6" s="15" t="s">
+      <c r="M6" s="12"/>
+      <c r="O6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="10">
         <v>0.95</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="10">
         <v>0.92</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="19">
-        <v>50</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="14">
+        <v>100</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="15">
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="17">
         <f t="shared" si="1"/>
-        <v>290</v>
-      </c>
-      <c r="J7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="18">
         <f>R28</f>
         <v>20</v>
       </c>
-      <c r="M7" s="17"/>
-      <c r="O7" s="15" t="s">
+      <c r="M7" s="12"/>
+      <c r="O7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="10">
         <v>0.9</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="10">
         <v>0.22</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="15">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="I8" s="22">
+        <v>50</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="17">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="L8" s="23">
+      <c r="J8" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="18">
         <f>IF($M$1=$P$25,P29,IF($M$1=$Q$25,Q29))</f>
         <v>80</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="O8" s="15" t="s">
+      <c r="O8" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="10">
         <v>2530</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="10">
         <v>1190</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="20">
+      <c r="E9" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="15">
         <f>IF($G$1=$P$3,P11,IF($G$1=$Q$3,Q11))</f>
         <v>20</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H9" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="I9" s="22">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="L9" s="23">
+      <c r="L9" s="18">
         <f>R29</f>
         <v>5</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="10">
         <v>0.72</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="10">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="O10" s="15" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O10" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="P10" s="15">
-        <v>70</v>
-      </c>
-      <c r="Q10" s="15">
+      <c r="P10" s="10">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="O11" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="P11" s="15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O11" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="P11" s="10">
         <v>20</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="34"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="O14" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="R14" s="35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="O15" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="P15" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>0</v>
+      </c>
+      <c r="R15" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="O16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="R16" s="11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="O17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" s="19">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>50</v>
+      </c>
+      <c r="R17" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" s="11">
+        <v>2700</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>7100</v>
+      </c>
+      <c r="R18" s="11">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O19" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P19" s="11">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0.46</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O20" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" s="11">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="39"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="O14" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="P14" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q14" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="R14" s="40" t="s">
+      <c r="R20" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O22" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="11">
+        <v>75</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>60</v>
+      </c>
+      <c r="R22" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O24" s="32"/>
+      <c r="P24" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="38"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O25" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="P25" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q25" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="R25" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="O15" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="P15" s="16">
-        <v>0.02</v>
-      </c>
-      <c r="Q15" s="16">
-        <v>0</v>
-      </c>
-      <c r="R15" s="16">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B16" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="O16" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="P16" s="16">
-        <v>0.85</v>
-      </c>
-      <c r="Q16" s="16">
-        <v>0.98</v>
-      </c>
-      <c r="R16" s="16">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B17" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="O17" s="16" t="s">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O26" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P26" s="22">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q26" s="22">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R26" s="22">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O27" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Q17" s="16">
-        <v>24</v>
-      </c>
-      <c r="R17" s="16">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O18" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="P18" s="16">
-        <v>2700</v>
-      </c>
-      <c r="Q18" s="16">
-        <v>2250</v>
-      </c>
-      <c r="R18" s="16">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O19" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P19" s="16">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="Q19" s="16">
-        <v>0.72</v>
-      </c>
-      <c r="R19" s="16">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O20" s="16" t="s">
+      <c r="P27" s="22">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="22">
+        <v>400</v>
+      </c>
+      <c r="R27" s="22">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O28" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="P20" s="16">
-        <v>290</v>
-      </c>
-      <c r="Q20" s="16">
-        <v>650</v>
-      </c>
-      <c r="R20" s="16">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O21" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="P21" s="16">
-        <v>0.02</v>
-      </c>
-      <c r="Q21" s="16">
-        <v>0.02</v>
-      </c>
-      <c r="R21" s="16">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O22" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="P22" s="16">
+      <c r="P28" s="22">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="22">
+        <v>14</v>
+      </c>
+      <c r="R28" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O29" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="P29" s="22">
         <v>75</v>
       </c>
-      <c r="Q22" s="16">
-        <v>50</v>
-      </c>
-      <c r="R22" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O24" s="37"/>
-      <c r="P24" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="43"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O25" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="P25" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q25" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="R25" s="45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O26" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="P26" s="27">
-        <v>0.04</v>
-      </c>
-      <c r="Q26" s="27">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="R26" s="27">
-        <v>8.7999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O27" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="P27" s="27">
-        <v>160</v>
-      </c>
-      <c r="Q27" s="27">
-        <v>400</v>
-      </c>
-      <c r="R27" s="27">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O28" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="P28" s="27">
-        <v>60</v>
-      </c>
-      <c r="Q28" s="27">
-        <v>14</v>
-      </c>
-      <c r="R28" s="27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O29" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="P29" s="27">
-        <v>6</v>
-      </c>
-      <c r="Q29" s="27">
+      <c r="Q29" s="22">
         <v>80</v>
       </c>
-      <c r="R29" s="27">
+      <c r="R29" s="22">
         <v>5</v>
       </c>
     </row>
@@ -2744,13 +3117,13 @@
     <mergeCell ref="B17:H17"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$P$3:$Q$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>$P$25:$Q$25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>$P$14:$R$14</formula1>
     </dataValidation>
   </dataValidations>
@@ -2761,62 +3134,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="B2" s="53"/>
+      <c r="D2" s="63" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="A2" s="58" t="s">
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="D2" s="61" t="s">
+      <c r="B3" s="53"/>
+    </row>
+    <row r="4" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="58" t="s">
+      <c r="B4" s="53"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="58"/>
-    </row>
-    <row r="4" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="58"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="58"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="B5" s="53"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:F2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$A$2:$A$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -2826,213 +3199,287 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="8.90625" customWidth="1"/>
-    <col min="10" max="10" width="24.81640625" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="B2" s="5">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C2" s="5">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="D2" s="5">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E2" s="46">
+        <v>0</v>
+      </c>
+      <c r="F2" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="G2" s="48">
+        <v>0.02</v>
+      </c>
+      <c r="I2" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B3" s="5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="C3" s="5">
+        <v>50.4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E3" s="46">
+        <v>0.09</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="I3" s="49" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G2" s="53">
-        <v>0.02</v>
-      </c>
-      <c r="I2" s="54" t="s">
+      <c r="J3" t="s">
         <v>151</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2">
-        <v>7898.9607438016528</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="55"/>
-      <c r="I3" s="54" t="s">
+      <c r="K3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B4" s="5">
+        <v>40.4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="D4" s="5">
+        <v>40.4</v>
+      </c>
+      <c r="E4" s="46">
+        <v>0.23399999999999999</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="I4" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J4" t="s">
         <v>153</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K4" t="s">
         <v>97</v>
       </c>
-      <c r="M3">
-        <v>88.876097707998255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="55"/>
-      <c r="I4" s="54" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>44</v>
+      </c>
+      <c r="C5" s="5">
+        <v>75</v>
+      </c>
+      <c r="D5" s="5">
+        <v>44</v>
+      </c>
+      <c r="E5" s="46">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="I5" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J5" t="s">
         <v>155</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K5" t="s">
         <v>97</v>
       </c>
-      <c r="M4">
-        <v>0.44438048853999129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="55"/>
-      <c r="I5" s="54" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B6" s="5">
+        <v>46.3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>78.3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>46.3</v>
+      </c>
+      <c r="E6" s="46">
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="I6" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J6" t="s">
         <v>157</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="55"/>
-      <c r="I6" s="56" t="s">
+      <c r="K6" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="K6" s="57" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="55"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="55"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="B7" s="5">
+        <v>45.3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="D7" s="5">
+        <v>45.3</v>
+      </c>
+      <c r="E7" s="46">
+        <v>2.3280000000000003</v>
+      </c>
+      <c r="F7" s="50"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>0.625</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="55"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="B8" s="5">
+        <v>44</v>
+      </c>
+      <c r="C8" s="5">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="D8" s="5">
+        <v>44</v>
+      </c>
+      <c r="E8" s="46">
+        <v>3.69</v>
+      </c>
+      <c r="F8" s="50"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="55"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="B9" s="5">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="D9" s="5">
+        <v>43</v>
+      </c>
+      <c r="E9" s="46">
+        <v>4.62</v>
+      </c>
+      <c r="F9" s="50"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="55"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="B10" s="5">
+        <v>40.4</v>
+      </c>
+      <c r="C10" s="5">
+        <v>62.6</v>
+      </c>
+      <c r="D10" s="5">
+        <v>40.4</v>
+      </c>
+      <c r="E10" s="46">
+        <v>5.3460000000000001</v>
+      </c>
+      <c r="F10" s="50"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>0.75</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="55"/>
+      <c r="B11" s="5">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="C11" s="5">
+        <v>53.8</v>
+      </c>
+      <c r="D11" s="5">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="E11" s="46">
+        <v>5.8620000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B12" s="5">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="C12" s="5">
+        <v>44</v>
+      </c>
+      <c r="D12" s="5">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E12" s="46">
+        <v>6.1920000000000002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
